--- a/biology/Botanique/Tableau_phytosociologique/Tableau_phytosociologique.xlsx
+++ b/biology/Botanique/Tableau_phytosociologique/Tableau_phytosociologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les tableaux phytosociologiques sont issus de relevés phytosociologiques de terrain tirés de la littérature.
 Eaux marines : Eaux marines océaniques et littorales à végétation aquatique essentiellement algale.
@@ -526,7 +538,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réseau Tela Botanica s'est donné pour mission la compilation de tableaux phytosociologiques. Classés par milieux, ils sont disponibles au format Excel sur le site Internet de Tela Botanica.
  Portail de la botanique                     </t>
